--- a/Project 1 - Private Cloud Web Application/Anita-Quevedo-HybridCloud-Nutanix_Cluster_as_Built_2021-03-23_174147.xlsx
+++ b/Project 1 - Private Cloud Web Application/Anita-Quevedo-HybridCloud-Nutanix_Cluster_as_Built_2021-03-23_174147.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\udacity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\udacity\Hybrid-Cloud-Engineer-Nanodegree-Program-Proyects\Project 1 - Private Cloud Web Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E741C-F52D-4A4C-90EA-8684B8F59FAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD1478E-6CE8-49C9-8498-6944FAA3D9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-96" windowWidth="22296" windowHeight="13152" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nutanix Cluster Config" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="189">
   <si>
     <t>Cluster Information</t>
   </si>
@@ -359,12 +359,6 @@
     <t>172.31.0.215</t>
   </si>
   <si>
-    <t>db-prod</t>
-  </si>
-  <si>
-    <t>172.31.0.225</t>
-  </si>
-  <si>
     <t>web-prod</t>
   </si>
   <si>
@@ -380,22 +374,10 @@
     <t>web-dev</t>
   </si>
   <si>
-    <t>Nutanix-Clone-app-prod</t>
-  </si>
-  <si>
-    <t>172.31.0.222</t>
-  </si>
-  <si>
     <t>Nutanix-Clone-db-prod</t>
   </si>
   <si>
     <t>172.31.0.221</t>
-  </si>
-  <si>
-    <t>Nutanix-Clone-web-prod</t>
-  </si>
-  <si>
-    <t>172.31.0.220</t>
   </si>
   <si>
     <t>Container Information</t>
@@ -1049,7 +1031,7 @@
   <dimension ref="A2:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1189,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>36</v>
@@ -1542,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1607,18 +1589,18 @@
         <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>89</v>
@@ -1627,12 +1609,12 @@
         <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>89</v>
@@ -1641,63 +1623,21 @@
         <v>104</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6">
-      <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1723,56 +1663,56 @@
   <sheetData>
     <row r="2" spans="1:11" ht="17.399999999999999">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.6">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -1785,27 +1725,27 @@
         <v>48</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -1818,27 +1758,27 @@
         <v>48</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30.6">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
@@ -1851,27 +1791,27 @@
         <v>48</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -1881,16 +1821,16 @@
         <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1857,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="17.399999999999999">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30.6">
@@ -1925,33 +1865,33 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>38</v>
@@ -1968,41 +1908,41 @@
     </row>
     <row r="6" spans="1:7" ht="17.399999999999999">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45.6">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
@@ -2018,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -2031,7 +1971,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="17.399999999999999">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
@@ -2039,84 +1979,84 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.6">
       <c r="A4" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999">
       <c r="A9" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6">
@@ -2138,7 +2078,7 @@
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6">
@@ -2146,21 +2086,21 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30.6">
@@ -2168,22 +2108,22 @@
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
